--- a/biology/Médecine/Johann_Joseph_Scherer/Johann_Joseph_Scherer.xlsx
+++ b/biology/Médecine/Johann_Joseph_Scherer/Johann_Joseph_Scherer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann Joseph Scherer (18 mars 1814 - 17 février 1869) est un médecin et chimiste allemand 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né à Aschaffenbourg, il est diplômé en 1836 de l'Université de Wurtzbourg, où il étudie la médecine, la chimie, la géologie et la minéralogie. De 1836 à 1838, il exerce la médecine à Wipfeld, puis s'installe à l'Université de Munich, où il reprend ses études de chimie.
 En 1840, il travaille dans le laboratoire de Justus von Liebig (1803-1873) à Giessen, retournant à Wurtzbourg en 1842 comme professeur de chimie organique. Au cours de sa carrière à Würzbourg, il occupe le poste de professeur dans les départements de chimie générale, inorganique et pharmacologique, atteignant également la direction de l'Institut médical de chimie et d'hygiène.
